--- a/output/VERDE_21956674000134.xlsx
+++ b/output/VERDE_21956674000134.xlsx
@@ -1142,10 +1142,10 @@
         <v>44165</v>
       </c>
       <c r="B69">
-        <v>0.7273219</v>
+        <v>0.7257051400000001</v>
       </c>
       <c r="C69">
-        <v>0.005614082507898077</v>
+        <v>0.004672835468747305</v>
       </c>
     </row>
   </sheetData>

--- a/output/VERDE_21956674000134.xlsx
+++ b/output/VERDE_21956674000134.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>VERDE AM HORIZONTE FEEDER FI EM COTAS DE FI MULTIMERCADO CRÉDITO PRIVADO - INVESTIMENTO NO EXTERIOR</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,766 +383,562 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>42124</v>
       </c>
       <c r="B2">
-        <v>-0.001574709999999979</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>42155</v>
       </c>
       <c r="B3">
-        <v>0.03331269000000003</v>
-      </c>
-      <c r="C3">
         <v>0.03494242418478799</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>42185</v>
       </c>
       <c r="B4">
-        <v>0.02121664999999995</v>
-      </c>
-      <c r="C4">
         <v>-0.01170607901853993</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>42216</v>
       </c>
       <c r="B5">
-        <v>0.06875776999999994</v>
-      </c>
-      <c r="C5">
         <v>0.04655341253983658</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>42247</v>
       </c>
       <c r="B6">
-        <v>0.06494547000000006</v>
-      </c>
-      <c r="C6">
         <v>-0.003567038394490352</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>42277</v>
       </c>
       <c r="B7">
-        <v>0.07726104</v>
-      </c>
-      <c r="C7">
         <v>0.01156450761746508</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>42308</v>
       </c>
       <c r="B8">
-        <v>0.10105772</v>
-      </c>
-      <c r="C8">
         <v>0.02208998480071278</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>42338</v>
       </c>
       <c r="B9">
-        <v>0.1155669800000001</v>
-      </c>
-      <c r="C9">
         <v>0.01317756529603198</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>42369</v>
       </c>
       <c r="B10">
-        <v>0.12982085</v>
-      </c>
-      <c r="C10">
         <v>0.01277724265377578</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>42400</v>
       </c>
       <c r="B11">
-        <v>0.1306623499999999</v>
-      </c>
-      <c r="C11">
         <v>0.0007448083472703093</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>42429</v>
       </c>
       <c r="B12">
-        <v>0.12728183</v>
-      </c>
-      <c r="C12">
         <v>-0.00298985811281316</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>42460</v>
       </c>
       <c r="B13">
-        <v>0.09450482999999998</v>
-      </c>
-      <c r="C13">
         <v>-0.02907613617794236</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>42490</v>
       </c>
       <c r="B14">
-        <v>0.09746929999999998</v>
-      </c>
-      <c r="C14">
         <v>0.002708503351236846</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>42521</v>
       </c>
       <c r="B15">
-        <v>0.1210771500000001</v>
-      </c>
-      <c r="C15">
         <v>0.02151117120087109</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>42551</v>
       </c>
       <c r="B16">
-        <v>0.1073411500000001</v>
-      </c>
-      <c r="C16">
         <v>-0.01225250197990391</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>42582</v>
       </c>
       <c r="B17">
-        <v>0.13033574</v>
-      </c>
-      <c r="C17">
         <v>0.0207655879129931</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>42613</v>
       </c>
       <c r="B18">
-        <v>0.1458461900000001</v>
-      </c>
-      <c r="C18">
         <v>0.01372198493874044</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>42643</v>
       </c>
       <c r="B19">
-        <v>0.1541797300000001</v>
-      </c>
-      <c r="C19">
         <v>0.007272826032610924</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>42674</v>
       </c>
       <c r="B20">
-        <v>0.15864038</v>
-      </c>
-      <c r="C20">
         <v>0.003864779361529624</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>42704</v>
       </c>
       <c r="B21">
-        <v>0.1776069199999999</v>
-      </c>
-      <c r="C21">
         <v>0.01636965216075059</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>42735</v>
       </c>
       <c r="B22">
-        <v>0.2061505699999999</v>
-      </c>
-      <c r="C22">
         <v>0.02423869078486729</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>42766</v>
       </c>
       <c r="B23">
-        <v>0.20943479</v>
-      </c>
-      <c r="C23">
         <v>0.002722893875513499</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>42794</v>
       </c>
       <c r="B24">
-        <v>0.2256961200000001</v>
-      </c>
-      <c r="C24">
         <v>0.01344539625819774</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>42825</v>
       </c>
       <c r="B25">
-        <v>0.23808677</v>
-      </c>
-      <c r="C25">
         <v>0.0101090717330492</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>42855</v>
       </c>
       <c r="B26">
-        <v>0.24655005</v>
-      </c>
-      <c r="C26">
         <v>0.006835772907903603</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>42886</v>
       </c>
       <c r="B27">
-        <v>0.2420721800000001</v>
-      </c>
-      <c r="C27">
         <v>-0.003592210356896497</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>42916</v>
       </c>
       <c r="B28">
-        <v>0.2529675</v>
-      </c>
-      <c r="C28">
         <v>0.008771889569251901</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>42947</v>
       </c>
       <c r="B29">
-        <v>0.2841119700000001</v>
-      </c>
-      <c r="C29">
         <v>0.02485656651110268</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>42978</v>
       </c>
       <c r="B30">
-        <v>0.2933613799999999</v>
-      </c>
-      <c r="C30">
         <v>0.007202962215203002</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43008</v>
       </c>
       <c r="B31">
-        <v>0.3081862200000001</v>
-      </c>
-      <c r="C31">
         <v>0.01146225658910605</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43039</v>
       </c>
       <c r="B32">
-        <v>0.3126373600000001</v>
-      </c>
-      <c r="C32">
         <v>0.003402527814426959</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>43069</v>
       </c>
       <c r="B33">
-        <v>0.3182770100000001</v>
-      </c>
-      <c r="C33">
         <v>0.004296426546932963</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>43100</v>
       </c>
       <c r="B34">
-        <v>0.33052825</v>
-      </c>
-      <c r="C34">
         <v>0.009293373021804996</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>43131</v>
       </c>
       <c r="B35">
-        <v>0.3592265100000001</v>
-      </c>
-      <c r="C35">
         <v>0.02156907228388438</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>43159</v>
       </c>
       <c r="B36">
-        <v>0.35055562</v>
-      </c>
-      <c r="C36">
         <v>-0.00637928258182674</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>43190</v>
       </c>
       <c r="B37">
-        <v>0.3577191399999999</v>
-      </c>
-      <c r="C37">
         <v>0.005304128089149041</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>43220</v>
       </c>
       <c r="B38">
-        <v>0.36065681</v>
-      </c>
-      <c r="C38">
         <v>0.002163680184990247</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>43251</v>
       </c>
       <c r="B39">
-        <v>0.32633596</v>
-      </c>
-      <c r="C39">
         <v>-0.02522373735078731</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>43281</v>
       </c>
       <c r="B40">
-        <v>0.3208473300000001</v>
-      </c>
-      <c r="C40">
         <v>-0.004138189844449247</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>43312</v>
       </c>
       <c r="B41">
-        <v>0.3463141700000001</v>
-      </c>
-      <c r="C41">
         <v>0.01928068401364746</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>43343</v>
       </c>
       <c r="B42">
-        <v>0.33795127</v>
-      </c>
-      <c r="C42">
         <v>-0.006211700200704273</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>43373</v>
       </c>
       <c r="B43">
-        <v>0.3445532099999999</v>
-      </c>
-      <c r="C43">
         <v>0.004934365060993429</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>43404</v>
       </c>
       <c r="B44">
-        <v>0.38697034</v>
-      </c>
-      <c r="C44">
         <v>0.03154737922197959</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>43434</v>
       </c>
       <c r="B45">
-        <v>0.3909157000000001</v>
-      </c>
-      <c r="C45">
         <v>0.002844588587237018</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>43465</v>
       </c>
       <c r="B46">
-        <v>0.3964350400000001</v>
-      </c>
-      <c r="C46">
         <v>0.003968134086055564</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>43496</v>
       </c>
       <c r="B47">
-        <v>0.4375868199999999</v>
-      </c>
-      <c r="C47">
         <v>0.02946916886302131</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>43524</v>
       </c>
       <c r="B48">
-        <v>0.4468817300000001</v>
-      </c>
-      <c r="C48">
         <v>0.00646563384603116</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>43555</v>
       </c>
       <c r="B49">
-        <v>0.45497802</v>
-      </c>
-      <c r="C49">
         <v>0.005595681963583843</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>43585</v>
       </c>
       <c r="B50">
-        <v>0.46889409</v>
-      </c>
-      <c r="C50">
         <v>0.009564453764050684</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>43616</v>
       </c>
       <c r="B51">
-        <v>0.4885188199999999</v>
-      </c>
-      <c r="C51">
         <v>0.01336020761033896</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>43646</v>
       </c>
       <c r="B52">
-        <v>0.5177222100000001</v>
-      </c>
-      <c r="C52">
         <v>0.01961909356309</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>43677</v>
       </c>
       <c r="B53">
-        <v>0.52017761</v>
-      </c>
-      <c r="C53">
         <v>0.001617819113288066</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>43708</v>
       </c>
       <c r="B54">
-        <v>0.5255359399999999</v>
-      </c>
-      <c r="C54">
         <v>0.00352480523640919</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>43738</v>
       </c>
       <c r="B55">
-        <v>0.5509373</v>
-      </c>
-      <c r="C55">
         <v>0.01665077782434943</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>43769</v>
       </c>
       <c r="B56">
-        <v>0.5760666999999999</v>
-      </c>
-      <c r="C56">
         <v>0.01620271818854313</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>43799</v>
       </c>
       <c r="B57">
-        <v>0.56655458</v>
-      </c>
-      <c r="C57">
         <v>-0.0060353537067942</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>43830</v>
       </c>
       <c r="B58">
-        <v>0.5835022700000001</v>
-      </c>
-      <c r="C58">
         <v>0.01081844847052826</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>43861</v>
       </c>
       <c r="B59">
-        <v>0.59727197</v>
-      </c>
-      <c r="C59">
         <v>0.008695724825200202</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>43890</v>
       </c>
       <c r="B60">
-        <v>0.6020118299999999</v>
-      </c>
-      <c r="C60">
         <v>0.002967472095563028</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>43921</v>
       </c>
       <c r="B61">
-        <v>0.5172752300000001</v>
-      </c>
-      <c r="C61">
         <v>-0.05289386658274542</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>43951</v>
       </c>
       <c r="B62">
-        <v>0.61109923</v>
-      </c>
-      <c r="C62">
         <v>0.06183716582521415</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>43982</v>
       </c>
       <c r="B63">
-        <v>0.6528793799999999</v>
-      </c>
-      <c r="C63">
         <v>0.02593269813678689</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>44012</v>
       </c>
       <c r="B64">
-        <v>0.68129522</v>
-      </c>
-      <c r="C64">
         <v>0.01719172030568861</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>44043</v>
       </c>
       <c r="B65">
-        <v>0.7216009999999999</v>
-      </c>
-      <c r="C65">
         <v>0.02397305334633604</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>44074</v>
       </c>
       <c r="B66">
-        <v>0.7302322299999999</v>
-      </c>
-      <c r="C66">
         <v>0.005013490349970784</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>44104</v>
       </c>
       <c r="B67">
-        <v>0.72509658</v>
-      </c>
-      <c r="C67">
         <v>-0.002968185374745858</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>44135</v>
       </c>
       <c r="B68">
-        <v>0.7176787099999999</v>
-      </c>
-      <c r="C68">
         <v>-0.004299973744078756</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>44165</v>
       </c>
       <c r="B69">
-        <v>0.7257051400000001</v>
-      </c>
-      <c r="C69">
-        <v>0.004672835468747305</v>
+        <v>0.004560922804940581</v>
       </c>
     </row>
   </sheetData>
